--- a/resource/容器法外业记录表.xlsx
+++ b/resource/容器法外业记录表.xlsx
@@ -5,23 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Python_Projects\AutoExcelFillter\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PythonProjects\AutoExceller\output\NPJ234-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14070" tabRatio="849"/>
   </bookViews>
   <sheets>
-    <sheet name="流量" sheetId="35" r:id="rId1"/>
+    <sheet name="流量" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>容器法监测流量记录表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">监测日期：2019/01/17         观测者：梁昊         检查者：张振清 </t>
   </si>
   <si>
     <t>监测点</t>
@@ -54,43 +57,22 @@
     <t>备注</t>
   </si>
   <si>
+    <t>NPJ234-10</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>一天平均流量（L/s）</t>
+  </si>
+  <si>
     <t>24小时流量（吨）</t>
-  </si>
-  <si>
-    <t>一天平均流量（L/s）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <r>
-      <t>监测日期：2018/12/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">20         观测者：梁昊         检查者：张振清 </t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPJ4-41</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -127,11 +109,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -165,6 +142,12 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -178,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -188,91 +171,17 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -281,11 +190,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -297,73 +207,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,17 +593,17 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12"/>
@@ -736,261 +614,261 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="18">
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9">
-        <v>49.42</v>
-      </c>
-      <c r="E4" s="9">
-        <v>3500</v>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6.43</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3000</v>
       </c>
       <c r="F4" s="8">
-        <f>(E4/1000)/D4</f>
-        <v>7.0821529745042494E-2</v>
-      </c>
-      <c r="G4" s="19">
+        <f t="shared" ref="F4:F12" si="0">(E4/1000)/D4</f>
+        <v>0.46656298600311041</v>
+      </c>
+      <c r="G4" s="16">
         <f>(F4+F5+F6)/3</f>
-        <v>7.1921076115442018E-2</v>
-      </c>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="5" t="s">
+        <v>0.46901165274112139</v>
+      </c>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5.48</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2600</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.47445255474452552</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10">
-        <v>42.43</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D6" s="7">
+        <v>5.15</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2400</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.46601941747572811</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2.71</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1700</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.62730627306273057</v>
+      </c>
+      <c r="G7" s="16">
+        <f>(F7+F8+F9)/3</f>
+        <v>0.61438442253274983</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4.88</v>
+      </c>
+      <c r="E8" s="7">
         <v>3000</v>
       </c>
-      <c r="F5" s="8">
-        <f>(E5/1000)/D5</f>
-        <v>7.0704690077775162E-2</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="10">
-        <v>36.369999999999997</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2700</v>
-      </c>
-      <c r="F6" s="8">
-        <f>(E6/1000)/D6</f>
-        <v>7.4237008523508397E-2</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10">
-        <v>21.55</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2000</v>
-      </c>
-      <c r="F7" s="8">
-        <f>(E7/1000)/D7</f>
-        <v>9.2807424593967514E-2</v>
-      </c>
-      <c r="G7" s="19">
-        <f>(F7+F8+F9)/3</f>
-        <v>9.3293142837357387E-2</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="5" t="s">
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.61475409836065575</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10">
-        <v>31.47</v>
-      </c>
-      <c r="E8" s="10">
-        <v>3000</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" ref="F8:F12" si="0">(E8/1000)/D8</f>
-        <v>9.532888465204957E-2</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10">
-        <v>18.53</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1700</v>
+      <c r="D9" s="7">
+        <v>3.66</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2200</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>9.1743119266055037E-2</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10">
-        <v>22.04</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2000</v>
+        <v>0.60109289617486339</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2.44</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1500</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>9.0744101633393831E-2</v>
-      </c>
-      <c r="G10" s="19">
+        <v>0.61475409836065575</v>
+      </c>
+      <c r="G10" s="16">
         <f>(F10+F11+F12)/3</f>
-        <v>9.2769126664167825E-2</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="10">
-        <v>30.67</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2900</v>
+        <v>0.62310094375739089</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2.36</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1500</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
-        <v>9.4554939680469505E-2</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="11">
-        <v>31.18</v>
-      </c>
-      <c r="E12" s="11">
-        <v>2900</v>
+        <v>0.63559322033898313</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5.17</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3200</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="0"/>
-        <v>9.3008338678640154E-2</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="7">
+        <v>0.61895551257253389</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10">
         <f>AVERAGE(G4:G12)</f>
-        <v>8.5994448538989077E-2</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
-      <c r="B14" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="7">
+        <v>0.56883233967708735</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10">
         <f>G13*86400/1000</f>
-        <v>7.4299203537686562</v>
-      </c>
-      <c r="H14" s="6"/>
+        <v>49.14711414810035</v>
+      </c>
+      <c r="H14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1007,7 +885,7 @@
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="B13:F13"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
